--- a/docs/ref/各厂家热表或阀控器特性记录.xlsx
+++ b/docs/ref/各厂家热表或阀控器特性记录.xlsx
@@ -421,18 +421,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地址共9位，剩余5位高地址全写0.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>静态电流2.8mADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址共9位，剩余5位高地址全写0.2016 年 3 月后生产的仪表通讯地址高 5 位地址均补 09590.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -826,8 +826,8 @@
   <dimension ref="A2:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1245,13 +1245,13 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="2">
         <v>40</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I22" s="5"/>
     </row>
